--- a/config_9.21/act_ty_gifts_config.xlsx
+++ b/config_9.21/act_ty_gifts_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -378,24 +378,6 @@
     <t>2、加成效果仅限购买礼包当日</t>
   </si>
   <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","qllb_icon_xgjc"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","qllb_icon_xgjc"</t>
-  </si>
-  <si>
     <t>act_008_hflb</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -440,13 +422,31 @@
   <si>
     <t>1、购买礼包，活动中获得的月饼在排行榜中有额外加成</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","zqlb_icon_ybjc"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","zqlb_icon_ybjc"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -489,14 +489,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -524,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,9 +545,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -833,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -945,7 +934,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>19</v>
@@ -974,10 +963,10 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E5" s="5">
         <v>1632182400</v>
@@ -1077,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:D22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1699,25 +1688,25 @@
         <v>41</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>108</v>
+        <v>121</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>49</v>
@@ -1743,25 +1732,25 @@
         <v>41</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J15" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="L15" s="5" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>49</v>
@@ -1787,25 +1776,25 @@
         <v>41</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="J16" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="O16" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>49</v>
@@ -1831,25 +1820,25 @@
         <v>41</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="L17" s="5" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="P17" s="4" t="s">
         <v>49</v>
@@ -1901,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
